--- a/src/main/resources/menAmazonCoat.xlsx
+++ b/src/main/resources/menAmazonCoat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="341">
   <si>
     <t>Id</t>
   </si>
@@ -35,501 +35,507 @@
     <t>men_amazon_coat_1</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71b6-pyvklL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>fit space</t>
+  </si>
+  <si>
+    <t>Mens Down Alternative Jacket Quilted Lightweight Packable Padding Coat with Detachable Hood</t>
+  </si>
+  <si>
+    <t>$59.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYXRmOjMwMDE1MDYzNTM0MDEwMjo6MDo6&amp;url=%2Ffit-space-Alternative-Lightweight-Detachable%2Fdp%2FB099RQ1GYZ%2Fref%3Dsr_1_1_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_2</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81kjO803l3L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Wantdo</t>
+  </si>
+  <si>
+    <t>Women's Lightweight Packable Down Jacket Hooded Insulated Coat</t>
+  </si>
+  <si>
+    <t>$89.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYXRmOjIwMDA5ODg5NjAyODc4MTo6MDo6&amp;url=%2FWantdo-Womens-Causal-Packable-Weight%2Fdp%2FB07GYP3959%2Fref%3Dsr_1_2_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_3</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51lkFcWSqTL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Lightweight Softshell Jacket for Men Full Zip Golf Jacket Fleece-Lined Coat Windbreaker</t>
+  </si>
+  <si>
+    <t>$49.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYXRmOjMwMDE1Mzk5NzUyODEwMjo6MDo6&amp;url=%2FLightweight-Softshell-Fleece-Lined-Windbreaker-3X-Large%2Fdp%2FB09BHSBQF2%2Fref%3Dsr_1_3_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_4</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71wY-gXwSrL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mr.Stream</t>
+  </si>
+  <si>
+    <t>Men's Hooded Coat Casual Thicken Long Sleeve Plaid Work Flannel Button Down Shirt Jacket</t>
+  </si>
+  <si>
+    <t>$99.50</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYXRmOjIwMDA5ODQ1NzQxNjQzMTo6MDo6&amp;url=%2FMr-Stream-Classic-Stylish-Casual-Vintage%2Fdp%2FB07C5PCJBX%2Fref%3Dsr_1_4_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_5</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61mA9NxfLML._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Springrain</t>
+  </si>
+  <si>
+    <t>Men's Notched Lapel Single Breasted Long Pea Coat Trench Coat</t>
+  </si>
+  <si>
+    <t>$36.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Springrain-Notched-Single-Breasted-Trench/dp/B07KWSSRFX/ref=sr_1_5?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-5</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_6</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/512fXriC0RL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Pretifeel</t>
+  </si>
+  <si>
+    <t>Mens Trench Coat Slim Fit Double Breasted Long Jacket Notched Lapel Belt Fall Windproof Coat</t>
+  </si>
+  <si>
+    <t>$50.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Pretifeel-Trench-Breasted-Notched-Windbreaker/dp/B08F2CD5BC/ref=sr_1_6_mod_primary_new?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-6</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_7</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/617n0HDN2tL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>COOFANDY</t>
+  </si>
+  <si>
+    <t>Men's Wool Blend Coat with Detachable Plaid Scarf Notched Collar Single Breasted Pea Coat Trench Overcoat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Trench-Notched-Collar-Winter/dp/B0B7WJF4P8/ref=sr_1_7?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-7</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_8</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Sy-aSlSEL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>EVALESS</t>
+  </si>
+  <si>
+    <t>Color Block Plaid Shirt Jacket Women V Neck Long Sleeve Button Down Blouses Tops Flannel Shirts Jackets</t>
+  </si>
+  <si>
+    <t>$109.99</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RIjJ8kdNRYbpVlJhqa8NnqgAAAGOoV_vSAEAAAH2AQBvbm9fdHhuX2JpZDcgICBvbm9fdHhuX2ltcDEgICBhT3X6/https://www.amazon.ca/EVALESS-Shacket-Blouses-Flannel-Jackets/dp/B0B3HYVFSH/ref=sxin_15_sbv_search_btf?content-id=amzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9%3Aamzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;crid=V591HJ41K7N4&amp;cv_ct_cx=Coat&amp;dib=eyJ2IjoiMSJ9.NifhAp7suohacOCFePPY8Q.CK-doHrnKj0ZHZALTAhJKsNo8IOM5fRkY4cRLWkDFu8&amp;dib_tag=se&amp;keywords=Coat&amp;pd_rd_i=B0B3HYVFSH&amp;pd_rd_r=3582322d-6ef0-46e5-92e9-a7fba558376e&amp;pd_rd_w=6r3E6&amp;pd_rd_wg=WamYN&amp;pf_rd_p=6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;pf_rd_r=BDXFW6AXN2HW6AKRQ7BX&amp;qid=1712104402&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_9</t>
+  </si>
+  <si>
+    <t>Coutgo</t>
+  </si>
+  <si>
+    <t>Mens Trench Coat Slim Fit Single Breasted Casual Long Jacket Lightweight Lapel Fall Windbreaker Overcoat</t>
+  </si>
+  <si>
+    <t>$38.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Trench-Breasted-Lightweight-Windbreaker-Overcoat/dp/B0BRCNCBGS/ref=sr_1_8?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-8</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_10</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71o8pPFIQ8L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>SOMTHRON</t>
+  </si>
+  <si>
+    <t>Men's Casual Trench Coat Slim Fit Notched Collar Long Jacket Overcoat Single Breasted Pea Coat wih Pockets</t>
+  </si>
+  <si>
+    <t>$92.36</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/SOMTHRON-Notched-Overcoat-Breasted-3X-Large/dp/B09J17M2WX/ref=sr_1_9?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-9</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_11</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61-Hd6438CL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>WULFUL</t>
+  </si>
+  <si>
+    <t>Men's Slim Fit Winter Wool Coat Long Trench Coat Business Jacket…</t>
+  </si>
+  <si>
+    <t>$69.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/WULFUL-Winter-Trench-Removable-Coffee/dp/B07WGFCW1L/ref=sr_1_10?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-10</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_12</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61gEri2IMsL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mountain Warehouse</t>
+  </si>
+  <si>
+    <t>Seasons Mens Winter Puffer Jacket - Padded Coat</t>
+  </si>
+  <si>
+    <t>$110.18</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Mountain-Warehouse-Resistant-Raincoat-XXX-Large/dp/B01KB02TSY/ref=sr_1_11?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-11</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_13</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/615lcAXjseL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>BGOWATU</t>
+  </si>
+  <si>
+    <t>Men's Bomber Jacket Fall Winter Qulited Full Zip Windprooof Casual Padded Warm Coat</t>
+  </si>
+  <si>
+    <t>$79.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/BGOWATU-Windprooof-Bomber-Qulited-Windbreaker/dp/B0CCSBZPY2/ref=sr_1_12?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-12</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_14</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61W+AviuXyL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Mens Sport Coat Casual Blazer One Button Business Dress Jacket Suit</t>
+  </si>
+  <si>
+    <t>$62.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Business-Jackets-Casual-One-Button/dp/B0BGJCPH9X/ref=sr_1_13?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-13</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_15</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61w1mMrEE0L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>chouyatou</t>
+  </si>
+  <si>
+    <t>Men's Winter Stylish Wool Blend Single Breasted Military Peacoat</t>
+  </si>
+  <si>
+    <t>$81.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Chouyatou-Stylish-Breasted-Military-XX-Large/dp/B09MRFVR9S/ref=sr_1_14?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-14</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_16</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71uLPLAmCuL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Mid-Length Single Breasted Wool Blend Top Coat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Chouyatou-Mid-Length-Single-Breasted-Blend/dp/B07JN2BRXR/ref=sr_1_15?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-15</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_17</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61h-8UIRTPS._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>APTRO</t>
+  </si>
+  <si>
+    <t>Men's Wool Pea Coat Trench Coats Topcoat Single Breasted Winter Jacket</t>
+  </si>
+  <si>
+    <t>$96.98</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/APTRO-Mens-Wool-Coat-Trench/dp/B09BKVPS3J/ref=sr_1_16?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-16</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_18</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81L8up4wegL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Classic Double Breasted Wool Blend Pea Coat Mid Long Trench Coat</t>
+  </si>
+  <si>
+    <t>$125.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/chouyatou-Classic-Double-Breasted-X-Large/dp/B0BCVTTS4S/ref=sr_1_17?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-17</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_19</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61NA58WmAVL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Pioneer</t>
+  </si>
+  <si>
+    <t>Pioneer Shop &amp; Garage Work Coat - Multi Pocket - Action Back - Snap Double Placket Closure - Navy</t>
+  </si>
+  <si>
+    <t>$113.22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Pioneer-V2020180-L-Multi-Pocket-Garage-Blue-Large/dp/B06WVJNFLL/ref=sr_1_18?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-18</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_20</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/611RbDyf1tL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Casual Sports Coats Lightweight Suit Blazer Jackets One Button</t>
+  </si>
+  <si>
+    <t>$47.15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/COOFANDY-Sports-Jakcet-Business-Jackets/dp/B0C77PPGDT/ref=sr_1_19?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-19</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_21</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71eDimQrhgL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Red Kap</t>
+  </si>
+  <si>
+    <t>Men's Shop Coat</t>
+  </si>
+  <si>
+    <t>$81.98</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Red-Kap-Mens-Shop-Coat/dp/B007FVVAJM/ref=sr_1_20?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-20</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_22</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71a046hgjWL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>TACVASEN</t>
+  </si>
+  <si>
+    <t>Men's Fleece Flannel Plaid Shirt Jacket Soft Sherpa Lined Cotton Casual Thickened Button Down Coat With Pockets</t>
+  </si>
+  <si>
+    <t>$48.84</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfbXRmOjMwMDA4NTkyOTA2MzYwMjo6MDo6&amp;url=%2FTACVASEN-Jacket-Fleece-Cotton-Outwear%2Fdp%2FB0BL6RHTY9%2Fref%3Dsr_1_21_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_23</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91R07D4FVKL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>CARWORNIC</t>
+  </si>
+  <si>
+    <t>Men's Military Tactical Fleece Jacket Warm Multi-Pockets Outdoor Hooded Coat</t>
+  </si>
+  <si>
+    <t>$76.98</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfbXRmOjMwMDA1Mjk1MjI1OTUwMjo6MDo6&amp;url=%2FCARWORNIC-Military-Tactical-Pockets-Outdoor%2Fdp%2FB07GBWVJ5H%2Fref%3Dsr_1_22_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_24</t>
+  </si>
+  <si>
     <t>https://m.media-amazon.com/images/I/719b3CbgSrL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>CARWORNIC</t>
-  </si>
-  <si>
-    <t>Men's Military Tactical Fleece Jacket Warm Multi-Pockets Outdoor Hooded Coat</t>
+    <t>WenVen</t>
+  </si>
+  <si>
+    <t>Men's Military Jacket Lightweight Cotton Stand Collar Casual Utility Coat</t>
   </si>
   <si>
     <t>$54.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYXRmOjMwMDA1Mjk1MjI1OTUwMjo6MDo6&amp;url=%2FCARWORNIC-Military-Tactical-Pockets-Outdoor%2Fdp%2FB07GBWVJ5H%2Fref%3Dsr_1_1_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-1-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_2</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61msOqGtFbL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Skateboards Coat Thrasher Flame Dot Coach Jacket Black</t>
-  </si>
-  <si>
-    <t>$109.30</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYXRmOjMwMDEzNDQ2NTA0MTEwMjo6MDo6&amp;url=%2FSanta-Thrasher-Flame-Coach-Jacket%2Fdp%2FB0CFT7RYMH%2Fref%3Dsr_1_2_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-2-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_3</t>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfbXRmOjIwMDA2MDIxMDIwNDg4MTo6MDo6&amp;url=%2FWenVen-Collar-Lightweight-Military-Jacket%2Fdp%2FB07FR6WV5V%2Fref%3Dsr_1_23_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_25</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71-83B-od0L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Casual Canvas Cotton Military Lapel Jacket</t>
+  </si>
+  <si>
+    <t>$86.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfbXRmOjIwMDAxMDg4NjkxMDI4MTo6MDo6&amp;url=%2FWenVen-Cotton-Canvas-Jacket-Military%2Fdp%2FB072PTGH5B%2Fref%3Dsr_1_24_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_26</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71pcrfOo1rL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Wool Trench Coat Winter Fleece Lining Business Jacket Overcoat with Scarf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/APTRO-Winter-Business-Jacket-Trench/dp/B08DTPWX1M/ref=sr_1_25?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-25</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_27</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71nUcSLoGbL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>ThCreasa</t>
+  </si>
+  <si>
+    <t>Mens Wool Blend Trench Coat Single Breasted Notch Lapel Walker Mid-Length Classic Pea Top Coat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/ThCreasa-Trench-Breasted-Mid-Length-Classic/dp/B0B6FTNNJM/ref=sr_1_26?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-26</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_28</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/615LRTUTz1L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Trench Coat for Men Wool Blend Slim Fit Casual Long Jackets Windbreaker Fall Winter Warm Classic Business Work Coat Pockets</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Trench-Jackets-Windbreaker-Classic-Business/dp/B0CH8PRLCY/ref=sr_1_27?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-27</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_29</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51FqqcQ7goL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>SIMAYA</t>
+  </si>
+  <si>
+    <t>Men's Long Trench Coat Slim Fit Long Business Trench Lapel Collar Coat Spring Fall Thin Windbreaker Cover Jacket</t>
+  </si>
+  <si>
+    <t>$63.88</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Trench-Business-Collar-Spring-Windbreaker/dp/B09GRTD7RR/ref=sr_1_28?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-28</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_30</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51K260cNRWL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men’s Wool Blend Winter Coat Slim Fit Short Trenchcoat Warm Business Jacket with Free Detachable Soft Wool Scarf</t>
+  </si>
+  <si>
+    <t>$99.66</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/WULFUL-Trench-Winter-Removable-Plaid/dp/B07JF83H1T/ref=sr_1_29?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-29</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_31</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61VJlyPuirL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>WULFUL</t>
-  </si>
-  <si>
-    <t>Men’s Wool Blend Winter Coat Slim Fit Short Trenchcoat Warm Business Jacket with Free Detachable Soft Wool Scarf</t>
-  </si>
-  <si>
-    <t>$99.66</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYXRmOjIwMDA0NTQxMTM3ODczMTo6MDo6&amp;url=%2FWULFUL-Trench-Winter-Removable-Plaid%2Fdp%2FB07JF83H1T%2Fref%3Dsr_1_3_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-3-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_4</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51lkFcWSqTL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>fit space</t>
-  </si>
-  <si>
-    <t>Lightweight Softshell Jacket for Men Full Zip Golf Jacket Fleece-Lined Coat Windbreaker</t>
-  </si>
-  <si>
-    <t>$49.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYXRmOjMwMDE1Mzk5NzUyODMwMjo6MDo6&amp;url=%2FLightweight-Softshell-Jacket-Fleece-Lined-Windbreaker%2Fdp%2FB09BHRX6LJ%2Fref%3Dsr_1_4_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-4-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_5</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61mA9NxfLML._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Springrain</t>
-  </si>
-  <si>
-    <t>Men's Notched Lapel Single Breasted Long Pea Coat Trench Coat</t>
-  </si>
-  <si>
-    <t>$36.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Springrain-Notched-Single-Breasted-Trench/dp/B07KWSSRFX/ref=sr_1_5?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_6</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/512fXriC0RL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Pretifeel</t>
-  </si>
-  <si>
-    <t>Mens Trench Coat Slim Fit Double Breasted Long Jacket Notched Lapel Belt Fall Windproof Coat</t>
-  </si>
-  <si>
-    <t>$50.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Pretifeel-Trench-Breasted-Notched-Windbreaker/dp/B08F2CD5BC/ref=sr_1_6_mod_primary_new?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-6</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_7</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/617n0HDN2tL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>COOFANDY</t>
-  </si>
-  <si>
-    <t>Men's Wool Blend Coat with Detachable Plaid Scarf Notched Collar Single Breasted Pea Coat Trench Overcoat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Trench-Notched-Collar-Winter/dp/B0B7WJF4P8/ref=sr_1_7?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_8</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71o8pPFIQ8L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Coutgo</t>
-  </si>
-  <si>
-    <t>Mens Trench Coat Slim Fit Single Breasted Casual Long Jacket Lightweight Lapel Fall Windbreaker Overcoat</t>
-  </si>
-  <si>
-    <t>$109.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Trench-Breasted-Lightweight-Windbreaker-Overcoat/dp/B0BRCNCBGS/ref=sr_1_8?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-8</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_9</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71Sy-aSlSEL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>EVALESS</t>
-  </si>
-  <si>
-    <t>Color Block Plaid Shirt Jacket Women V Neck Long Sleeve Button Down Blouses Tops Flannel Shirts Jackets</t>
-  </si>
-  <si>
-    <t>$92.36</t>
-  </si>
-  <si>
-    <t>https://aax-us-iad.amazon.com/x/c/RKGjMqaRungfuC50zZpzh0IAAAGOoGvIAAEAAAH2AQBvbm9fdHhuX2JpZDYgICBvbm9fdHhuX2ltcDEgICCRAqr_/https://www.amazon.ca/EVALESS-Shacket-Blouses-Flannel-Jackets/dp/B0B3HYVFSH/ref=sxin_16_sbv_search_btf?content-id=amzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9%3Aamzn1.sym.6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;crid=32E4H90FCEMZ4&amp;cv_ct_cx=Coat&amp;dib=eyJ2IjoiMSJ9.NifhAp7suohacOCFePPY8Q.rQNlPDkblXEK9-yxKuIxVf8HtXnjMmtiG9tLfp287HQ&amp;dib_tag=se&amp;keywords=Coat&amp;pd_rd_i=B0B3HYVFSH&amp;pd_rd_r=db3f5f7a-fad7-4057-9f7f-fa2615c4e10e&amp;pd_rd_w=BCQTw&amp;pd_rd_wg=hvINh&amp;pf_rd_p=6b8efafa-0a4c-485d-8241-b89dd78497d9&amp;pf_rd_r=0HPC3GZV881M1NHZMD1Q&amp;qid=1712088401&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-1-5190daf0-67e3-427c-bea6-c72c1df98776</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_10</t>
-  </si>
-  <si>
-    <t>Mountain Warehouse</t>
-  </si>
-  <si>
-    <t>Seasons Mens Winter Puffer Jacket - Padded Coat</t>
-  </si>
-  <si>
-    <t>$38.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Mountain-Warehouse-Resistant-Raincoat-XXX-Large/dp/B01KB02TSY/ref=sr_1_9?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-9</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_11</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/615lcAXjseL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mens Sport Coat Casual Blazer One Button Business Dress Jacket Suit</t>
-  </si>
-  <si>
-    <t>$79.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Business-Jackets-Casual-One-Button/dp/B0BGJCPH9X/ref=sr_1_10?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-10</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_12</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61w1mMrEE0L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Slim Fit Winter Wool Coat Long Trench Coat Business Jacket…</t>
-  </si>
-  <si>
-    <t>$81.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/WULFUL-Winter-Trench-Removable-X-Large/dp/B07WR8C576/ref=sr_1_11?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-11</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_13</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61d+1cF1AdL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>SOMTHRON</t>
-  </si>
-  <si>
-    <t>Men's Casual Trench Coat Slim Fit Notched Collar Long Jacket Overcoat Single Breasted Pea Coat wih Pockets</t>
-  </si>
-  <si>
-    <t>$110.18</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/SOMTHRON-Notched-Overcoat-Breasted-3X-Large/dp/B09J17M2WX/ref=sr_1_12?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-12</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_14</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61-Hd6438CL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>BGOWATU</t>
-  </si>
-  <si>
-    <t>Men's Bomber Jacket Fall Winter Qulited Full Zip Windprooof Casual Padded Warm Coat</t>
-  </si>
-  <si>
-    <t>$69.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/BGOWATU-Windprooof-Bomber-Qulited-Windbreaker/dp/B0CCSBZPY2/ref=sr_1_13?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-13</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_15</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61W+AviuXyL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>chouyatou</t>
-  </si>
-  <si>
-    <t>Men's Winter Stylish Wool Blend Single Breasted Military Peacoat</t>
-  </si>
-  <si>
-    <t>$62.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Chouyatou-Stylish-Breasted-Military-XX-Large/dp/B09MRFVR9S/ref=sr_1_14?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-14</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_16</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71uLPLAmCuL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Mid-Length Single Breasted Wool Blend Top Coat</t>
-  </si>
-  <si>
-    <t>$89.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Chouyatou-Mid-Length-Single-Breasted-Blend/dp/B07JN2BRXR/ref=sr_1_15?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-15</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_17</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61h-8UIRTPS._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>APTRO</t>
-  </si>
-  <si>
-    <t>Men's Wool Pea Coat Trench Coats Topcoat Single Breasted Winter Jacket</t>
-  </si>
-  <si>
-    <t>$96.98</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/APTRO-Mens-Wool-Coat-Trench/dp/B09BKVPS3J/ref=sr_1_16?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-16</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_18</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81L8up4wegL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Classic Double Breasted Wool Blend Pea Coat Mid Long Trench Coat</t>
-  </si>
-  <si>
-    <t>$125.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/chouyatou-Classic-Double-Breasted-X-Large/dp/B0BCVTTS4S/ref=sr_1_17?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-17</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_19</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61NA58WmAVL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Pioneer</t>
-  </si>
-  <si>
-    <t>Pioneer Shop &amp; Garage Work Coat - Multi Pocket - Action Back - Snap Double Placket Closure - Navy</t>
-  </si>
-  <si>
-    <t>$113.22</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Pioneer-V2020180-L-Multi-Pocket-Garage-Blue-Large/dp/B06WVJNFLL/ref=sr_1_18?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-18</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_20</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/611RbDyf1tL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Casual Sports Coats Lightweight Suit Blazer Jackets One Button</t>
-  </si>
-  <si>
-    <t>$47.15</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Sports-Jakcet-Business-Jackets/dp/B0C77PPGDT/ref=sr_1_19?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-19</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_21</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71eDimQrhgL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Red Kap</t>
-  </si>
-  <si>
-    <t>Men's Shop Coat</t>
-  </si>
-  <si>
-    <t>$81.98</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Red-Kap-Mens-Shop-Coat/dp/B007FVVAJM/ref=sr_1_20?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-20</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_22</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71a046hgjWL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>WenVen</t>
-  </si>
-  <si>
-    <t>Men's Casual Canvas Cotton Military Lapel Jacket</t>
-  </si>
-  <si>
-    <t>$48.84</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfbXRmOjIwMDAxMDg4NjkxMDI4MTo6MDo6&amp;url=%2FWenVen-Cotton-Canvas-Jacket-Military%2Fdp%2FB072PTGH5B%2Fref%3Dsr_1_21_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_23</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71pcrfOo1rL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Military Jacket Lightweight Cotton Stand Collar Casual Utility Coat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfbXRmOjIwMDA2MDIxMDIwNTQ4MTo6MDo6&amp;url=%2FWenVen-Collar-Lightweight-Military-Jacket%2Fdp%2FB07FRNCC88%2Fref%3Dsr_1_22_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-22-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_24</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81IHg54sAAL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>StoutMensShop</t>
-  </si>
-  <si>
-    <t>Big and Tall Black Classic Black Stretch Blazer for Business and Casual Wear to Size 72</t>
-  </si>
-  <si>
-    <t>$87.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfbXRmOjMwMDEwMTA3MzE0MjAwMjo6MDo6&amp;url=%2FClassic-Stretch-Blazer-Business-Casual%2Fdp%2FB07L62FNKD%2Fref%3Dsr_1_23_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-23-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_25</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51g30qRGzdL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Mr.Stream</t>
-  </si>
-  <si>
-    <t>Men's Hooded Coat Casual Thicken Long Sleeve Plaid Work Flannel Button Down Shirt Jacket</t>
-  </si>
-  <si>
-    <t>$331.13</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfbXRmOjIwMDA5ODQ1NzQxNzYzMTo6MDo6&amp;url=%2FMr-Stream-Classic-Stylish-Casual-Vintage%2Fdp%2FB07C5M7XKK%2Fref%3Dsr_1_24_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-24-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_26</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71Wdlf2cczL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Men's Wool Trench Coat Winter Fleece Lining Business Jacket Overcoat with Scarf</t>
-  </si>
-  <si>
-    <t>$99.50</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/APTRO-Winter-Business-Jacket-Trench/dp/B08DTPWX1M/ref=sr_1_25?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-25</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_27</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71nUcSLoGbL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Generic</t>
-  </si>
-  <si>
-    <t>Trench Coat for Men Wool Blend Slim Fit Casual Long Jackets Windbreaker Fall Winter Warm Classic Business Work Coat Pockets</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Trench-Jackets-Windbreaker-Classic-Business/dp/B0CH8PRLCY/ref=sr_1_26?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-26</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_28</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51FqqcQ7goL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>SIMAYA</t>
-  </si>
-  <si>
-    <t>Men's Long Trench Coat Slim Fit Long Business Trench Lapel Collar Coat Spring Fall Thin Windbreaker Cover Jacket</t>
-  </si>
-  <si>
-    <t>$63.88</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Trench-Business-Collar-Spring-Windbreaker/dp/B09GRTD7RR/ref=sr_1_27?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-27</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_29</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51K260cNRWL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>ThCreasa</t>
-  </si>
-  <si>
-    <t>Mens Wool Blend Trench Coat Single Breasted Notch Lapel Walker Mid-Length Classic Pea Top Coat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/ThCreasa-Trench-Breasted-Mid-Length-Classic/dp/B0B6FTNNJM/ref=sr_1_28?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-28</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_30</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/615LRTUTz1L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/WULFUL-Trench-Winter-Removable-Plaid/dp/B07JF83H1T/ref=sr_1_29?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-29</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_31</t>
-  </si>
-  <si>
     <t>JACKETREE</t>
   </si>
   <si>
@@ -539,7 +545,7 @@
     <t>$95.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/JACKETREE-Golf-Coat-Jacket-X-Large/dp/B0CGVW8K1D/ref=sr_1_30?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-30</t>
+    <t>https://www.amazon.ca/JACKETREE-Golf-Coat-Jacket-X-Large/dp/B0CGVW8K1D/ref=sr_1_30?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-30</t>
   </si>
   <si>
     <t>men_amazon_coat_32</t>
@@ -557,7 +563,7 @@
     <t>$75.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/PJ-PAUL-JONES-Blazer-Jacket/dp/B08R759THS/ref=sr_1_31?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-31</t>
+    <t>https://www.amazon.ca/PJ-PAUL-JONES-Blazer-Jacket/dp/B08R759THS/ref=sr_1_31?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-31</t>
   </si>
   <si>
     <t>men_amazon_coat_33</t>
@@ -575,7 +581,7 @@
     <t>$56.78</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Amazon-Essentials-Lightweight-Water-Resistant-Packable/dp/B07BN78SN2/ref=sr_1_32?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-32</t>
+    <t>https://www.amazon.ca/Amazon-Essentials-Lightweight-Water-Resistant-Packable/dp/B07BN78SN2/ref=sr_1_32?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-32</t>
   </si>
   <si>
     <t>men_amazon_coat_34</t>
@@ -590,7 +596,7 @@
     <t>Men's Rain Jacket with Hood Ligtweight Long Raincoat Outdoor Waterproof Jackets with Zipper</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/UNIQUEBELLA-Ligtweight-Raincoat-Outdoor-Waterproof/dp/B0CR3MZC96/ref=sr_1_33?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-33</t>
+    <t>https://www.amazon.ca/UNIQUEBELLA-Ligtweight-Raincoat-Outdoor-Waterproof/dp/B0CR3MZC96/ref=sr_1_33?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-33</t>
   </si>
   <si>
     <t>men_amazon_coat_35</t>
@@ -605,10 +611,10 @@
     <t>Men's Lightweight Jacket Full Zip Golf Jackets Collar Windbreaker Casual Spring Coat With 3 Pockets</t>
   </si>
   <si>
-    <t>$52.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/MAGCOMSEN-Lightweight-Jackets-Front-Zip-Windbreaker/dp/B0BJZRWRVF/ref=sr_1_34?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-34</t>
+    <t>$52.98</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/MAGCOMSEN-Lightweight-Jackets-Front-Zip-Windbreaker/dp/B0BJZRWRVF/ref=sr_1_34?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-34</t>
   </si>
   <si>
     <t>men_amazon_coat_36</t>
@@ -617,7 +623,40 @@
     <t>https://m.media-amazon.com/images/I/81DKp8nOMHL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>TACVASEN</t>
+    <t>Dockers</t>
+  </si>
+  <si>
+    <t>mens Henry Wool Blend Top Coat</t>
+  </si>
+  <si>
+    <t>$120.41</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Dockers-Henry-Blend-Charcoal-Herringbone/dp/B07T6KQLG1/ref=sr_1_35?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-35</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_37</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81R2Hv8TlHL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Men's Watertight II Packable Rain Jacket</t>
+  </si>
+  <si>
+    <t>$75.97</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Columbia-Watertight-Jacket-Black-XX-Large/dp/B00DQYWMRQ/ref=sr_1_36?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-36</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_38</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61mo2pvNdEL._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>Men's Jackets Winter Padded Athletic Outwear Casual Windproof Bomber Varsity Coat</t>
@@ -626,10 +665,10 @@
     <t>$83.98</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/TACVASEN-Bomber-Jackets-Padded-Casual/dp/B08FDF51R6/ref=sr_1_35?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-35</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_37</t>
+    <t>https://www.amazon.ca/TACVASEN-Bomber-Jackets-Padded-Casual/dp/B08FDF51R6/ref=sr_1_37?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-37</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_39</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/81U3UFHJceL._AC_UL320_.jpg</t>
@@ -641,94 +680,70 @@
     <t>$67.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/PJ-PAUL-JONES-Herringbone-Breathable/dp/B0CT5HGQ22/ref=sr_1_36?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-36</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_38</t>
+    <t>https://www.amazon.ca/PJ-PAUL-JONES-Herringbone-Breathable/dp/B0CT5HGQ22/ref=sr_1_38?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-38</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_40</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71mT-ZCQLkL._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>Men's Cotton Lightweight Jacket Military Jacket Front Zip Jacket</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wantdo-Casual-Jacket-Outdoor-Travel/dp/B078TCC47S/ref=sr_1_39?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-39</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_41</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Hrp+wMZ+L._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>OROLAY</t>
+  </si>
+  <si>
+    <t>Men's Long Double Breasted Trench Coat with Belt Light Lape Windbreaker</t>
+  </si>
+  <si>
+    <t>$88.19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Orolay-Double-Breasted-Trench-Windbreaker/dp/B08BZLX67J/ref=sr_1_40?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-40</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_42</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/7117rJEfkvL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>INVACHI</t>
   </si>
   <si>
-    <t>mens PeacoatButton closure</t>
-  </si>
-  <si>
-    <t>$103.96</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/INVACHI-Regular-Winter-Business-Detachable/dp/B0B62ZFL5F/ref=sr_1_37?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-37</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_39</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71kO1S6vHHL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Men's Watertight II Packable Rain Jacket</t>
-  </si>
-  <si>
-    <t>$75.97</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Columbia-Watertight-Jacket-Black-XX-Large/dp/B00DQYWMRQ/ref=sr_1_38?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-38</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_40</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61mo2pvNdEL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Wantdo</t>
-  </si>
-  <si>
-    <t>Men's Cotton Lightweight Jacket Military Jacket Front Zip Jacket</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wantdo-Casual-Jacket-Outdoor-Travel/dp/B078TCC47S/ref=sr_1_39?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-39</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_41</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71Hrp+wMZ+L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>OROLAY</t>
-  </si>
-  <si>
-    <t>Men's Long Double Breasted Trench Coat with Belt Light Lape Windbreaker</t>
-  </si>
-  <si>
-    <t>$88.19</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Orolay-Double-Breasted-Trench-Windbreaker/dp/B08BZLX67J/ref=sr_1_40?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-40</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_42</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/7117rJEfkvL._AC_UL320_.jpg</t>
+    <t>Men's Long Trench Coat Double Breasted Pea Coat Notched Lapel Overcoat Casual Jacket</t>
+  </si>
+  <si>
+    <t>$121.03</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/INVACHI-Breasted-Notched-Windproof-Overcoat/dp/B0CJ9DTFYC/ref=sr_1_41?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-41</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_43</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Hqc6wwj3L._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>Men's Long Waterproof Raincoat with Hood Lightweight Active Rainjacket</t>
   </si>
   <si>
-    <t>$59.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Lightweight-Length-Waterproof-Rainjacket/dp/B0CD13H596/ref=sr_1_41?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-41</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_43</t>
+    <t>https://www.amazon.ca/COOFANDY-Lightweight-Length-Waterproof-Rainjacket/dp/B0CD13H596/ref=sr_1_42?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-42</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_44</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61c5cNJmQNL._AC_UL320_.jpg</t>
@@ -740,28 +755,100 @@
     <t>Women's Hooded Diamond Adjustable Waist Quilted Coat</t>
   </si>
   <si>
-    <t>$119.52</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Tommy-Hilfiger-Diamond-Adjustable-Quilted/dp/B0C8FWCTC4/ref=sr_1_42?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-42</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_44</t>
+    <t>$119.22</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Tommy-Hilfiger-Diamond-Adjustable-Quilted/dp/B0C8FWCTC4/ref=sr_1_43?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-43</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_45</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71dR8SOi+hL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Men's Trench Coat Slim Fit Notch Lapel Double Breasted Belted Lightweight Windbreaker</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/COOFANDY-Breasted-Lightweight-Windbreaker-X-Large/dp/B0BBGPWVMC/ref=sr_1_43?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-43</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_45</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71z08Ewk+pL._AC_UL320_.jpg</t>
+    <t>Zando</t>
+  </si>
+  <si>
+    <t>Lightweight Rain Coat Packable Rain Jacket Waterproof Raincoats with Hood Outdoor Windbreaker Jackets Running Coat</t>
+  </si>
+  <si>
+    <t>$28.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Zando-Lightweight-Waterproof-Windbreaker-Windbreakers/dp/B0CP3B3JQ8/ref=sr_1_44?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-44</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_46</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61jkFie+RdL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>mens All Weather Top CoatWool Blend Coat</t>
+  </si>
+  <si>
+    <t>$165.30</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Tommy-Hilfiger-Mens-Weather-Light/dp/B07YNLF47Z/ref=sr_1_45?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-45</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_47</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71pTNQPF5OL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Pioneer Heavy-Duty Waterproof High Visibility Long Coat, Liberal Fit with Full Back Vent, Yellow/Green, L, V1081460-L</t>
+  </si>
+  <si>
+    <t>$84.27</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Pioneer-Heavy-Duty-Waterproof-Visibility-V1081460-L/dp/B07RQLRQ1Q/ref=sr_1_46?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-46</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_48</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51VaIwIh-RL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>NY Threads</t>
+  </si>
+  <si>
+    <t>Luxurious Men's Shawl Collar Fleece Bathrobe Spa Robe</t>
+  </si>
+  <si>
+    <t>$27.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/NY-Threads-Bathrobe-Ultra-Soft-Comfortable/dp/B075S99QD3/ref=sr_1_47?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-47</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_49</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71P3i9eC2uL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Pavel Korchagin</t>
+  </si>
+  <si>
+    <t>Men's Shop Coat/Workwear Coat/Work/DIY Coat Maintenance Cleaning Woodworking Mechanics Fishing</t>
+  </si>
+  <si>
+    <t>$35.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Pavel-Korchagin-Maintenance-Woodworking-Mechanics/dp/B07K72QR8S/ref=sr_1_48?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-48</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_50</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/514ORUjtC3L._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>London Fog</t>
@@ -770,100 +857,43 @@
     <t>Men's Double Breasted Belted Iconic Trench Coat, with Zip Out Liner</t>
   </si>
   <si>
-    <t>$189.30</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/London-Fog-Double-Breasted-42Regular/dp/B01LW7N8WG/ref=sr_1_44?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-44</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_46</t>
+    <t>$188.65</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/London-Fog-Double-Breasted-42Regular/dp/B01LW7N8WG/ref=sr_1_49?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-49</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_51</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/71+PPYYj4eL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Zando</t>
-  </si>
-  <si>
-    <t>Lightweight Rain Coat Packable Rain Jacket Waterproof Raincoats with Hood Outdoor Windbreaker Jackets Running Coat</t>
-  </si>
-  <si>
-    <t>$28.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Zando-Lightweight-Waterproof-Windbreaker-Windbreakers/dp/B0CP3B3JQ8/ref=sr_1_45?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-45</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_47</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61jkFie+RdL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>mens All Weather Top CoatWool Blend Coat</t>
-  </si>
-  <si>
-    <t>$165.30</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Tommy-Hilfiger-Mens-Weather-Light/dp/B07YNLF47Z/ref=sr_1_46?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-46</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_48</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71pTNQPF5OL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>NY Threads</t>
-  </si>
-  <si>
-    <t>Luxurious Men's Shawl Collar Fleece Bathrobe Spa Robe</t>
-  </si>
-  <si>
-    <t>$27.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/NY-Threads-Bathrobe-Ultra-Soft-Comfortable/dp/B075S99QD3/ref=sr_1_47?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-47</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_49</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71P3i9eC2uL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Pavel Korchagin</t>
-  </si>
-  <si>
-    <t>Men's Shop Coat/Workwear Coat/Work/DIY Coat Maintenance Cleaning Woodworking Mechanics Fishing</t>
-  </si>
-  <si>
-    <t>$35.99</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Pavel-Korchagin-Maintenance-Woodworking-Mechanics/dp/B07K72QR8S/ref=sr_1_48?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-48</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_50</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/514ORUjtC3L._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Pioneer Heavy-Duty Waterproof High Visibility Long Coat, Liberal Fit with Full Back Vent, Yellow/Green, L, V1081460-L</t>
-  </si>
-  <si>
-    <t>$84.27</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Pioneer-Heavy-Duty-Waterproof-Visibility-V1081460-L/dp/B07RQLRQ1Q/ref=sr_1_49?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-49</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_51</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51VaIwIh-RL._AC_UL320_.jpg</t>
+    <t>mens Powder Lite Jacket</t>
+  </si>
+  <si>
+    <t>$149.67</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Columbia-Powder-LiteTM-Insulated-Standard/dp/B07JW4TL96/ref=sr_1_50?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-50</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_52</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71iQwVBmXAL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Men's Casual Herringbone Tweed Blazer British Wool Blend Sport Coat Jacket</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/PJ-PAUL-JONES-Vintage-Herringbone/dp/B08CRDJCC9/ref=sr_1_51?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-51</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_53</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81dBFXqphDL._AC_UL320_.jpg</t>
   </si>
   <si>
     <t>KCaHFO</t>
@@ -875,61 +905,34 @@
     <t>$47.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/KCaHFO-Overcoat-Waterproof-Windproof-Lightweight/dp/B0CGCTY9L5/ref=sr_1_50?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-50</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_52</t>
+    <t>https://www.amazon.ca/KCaHFO-Overcoat-Waterproof-Windproof-Lightweight/dp/B0CGCTY9L5/ref=sr_1_52?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-52</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_54</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/51HIbcZffoL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>Men's Casual Herringbone Tweed Blazer British Wool Blend Sport Coat Jacket</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/PJ-PAUL-JONES-Vintage-Herringbone/dp/B08CRDJCC9/ref=sr_1_51?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-51</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_53</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/81dBFXqphDL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>SaphiRose</t>
   </si>
   <si>
     <t>Rain Poncho Jacket Coat for Adults Hooded Waterproof with Zipper Outdoor</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Waterproof-Poncho-Jacket-Adults-Hooded/dp/B0B21FFHK3/ref=sr_1_52?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-52</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_54</t>
+    <t>https://www.amazon.ca/Waterproof-Poncho-Jacket-Adults-Hooded/dp/B0B21FFHK3/ref=sr_1_53?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-53</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_55</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61-IWryOMNL._AC_UL320_.jpg</t>
   </si>
   <si>
-    <t>mens Powder Lite Jacket</t>
-  </si>
-  <si>
-    <t>$149.67</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Columbia-Powder-LiteTM-Insulated-Standard/dp/B07JW4TL96/ref=sr_1_53?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-53</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_55</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/71iQwVBmXAL._AC_UL320_.jpg</t>
-  </si>
-  <si>
     <t>Men Casual Sports Coat Lightweight Blazer Jacket Two Button Suit Jacket</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/COOFANDY-Blazer-Fashion-Stylish-Regular-Fit/dp/B09NBW3BDS/ref=sr_1_54?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-54</t>
+    <t>https://www.amazon.ca/COOFANDY-Blazer-Fashion-Stylish-Regular-Fit/dp/B09NBW3BDS/ref=sr_1_54?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-54</t>
   </si>
   <si>
     <t>men_amazon_coat_56</t>
@@ -947,7 +950,7 @@
     <t>$53.99</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Linvich-Casual-Jackets-Blazer-Button/dp/B0C65BBY2L/ref=sr_1_55?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-55</t>
+    <t>https://www.amazon.ca/Linvich-Casual-Jackets-Blazer-Button/dp/B0C65BBY2L/ref=sr_1_55?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-55</t>
   </si>
   <si>
     <t>men_amazon_coat_57</t>
@@ -959,7 +962,7 @@
     <t>Mens Blazer Jacket Casual Herringbone Suit Jacket 2 Buttons Sports Coats for Wedding</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/PJ-PAUL-JONES-Buttons-Herringbone/dp/B0CB24KQ2S/ref=sr_1_56?crid=32E4H90FCEMZ4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712088401&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C58&amp;sr=1-56</t>
+    <t>https://www.amazon.ca/PJ-PAUL-JONES-Buttons-Herringbone/dp/B0CB24KQ2S/ref=sr_1_56?crid=V591HJ41K7N4&amp;dib=eyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28&amp;dib_tag=se&amp;keywords=Coat&amp;qid=1712104402&amp;s=fashion&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-56</t>
   </si>
   <si>
     <t>men_amazon_coat_58</t>
@@ -968,58 +971,70 @@
     <t>https://m.media-amazon.com/images/I/61Dev9moKUL._AC_UL320_.jpg</t>
   </si>
   <si>
+    <t>MOERDENG</t>
+  </si>
+  <si>
+    <t>Women's Waterproof Ski Jacket Warm Winter Snow Coat Mountain Windbreaker Hooded Raincoat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYnRmOjIwMDAzNjAyNjc0OTA4MTo6MDo6&amp;url=%2FMOERDENG-Waterproof-Mountain-Windbreaker-Raincoat%2Fdp%2FB07W7D7FD9%2Fref%3Dsr_1_57_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_59</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61Sl5hKC5qL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>AXESQUIN</t>
+  </si>
+  <si>
+    <t>Mens Long Rain Jacket Waterproof Hooded Raincoat Lightweight Packable Windproof Outdoor Rain Coat Rainwear</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYnRmOjMwMDEyNDAxMTQ2NTAwMjo6MDo6&amp;url=%2FWaterproof-Reflective-Lightweight-Packable-Raincoat%2Fdp%2FB0B66BR47V%2Fref%3Dsr_1_58_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_60</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71Obca4AZxL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>Rdruko</t>
+  </si>
+  <si>
+    <t>Men's Outdoor Fleece Jacket Full Zip Waterproof Softshell Snow Jacket</t>
+  </si>
+  <si>
+    <t>$55.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYnRmOjIwMDAyMTUwOTUyNzIzMTo6MDo6&amp;url=%2FRdruko-Softshell-Waterproof-Windproof-Outdoor%2Fdp%2FB07ZJ737PB%2Fref%3Dsr_1_59_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_61</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/61U-Ue8CuQL._AC_UL320_.jpg</t>
+  </si>
+  <si>
     <t>Men's Casual Washed Cotton Military Jacket</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYnRmOjIwMDAxMDg4MDE1NDM4MTo6MDo6&amp;url=%2FWenVen-Military-Jacket-Comfortable-Large%2Fdp%2FB078Z8SNR1%2Fref%3Dsr_1_57_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-57-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_59</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/812gosMB60S._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>MOERDENG</t>
-  </si>
-  <si>
-    <t>Women's Waterproof Ski Jacket Warm Winter Snow Coat Mountain Windbreaker Hooded Raincoat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYnRmOjIwMDAzNjAyNjc0OTA4MTo6MDo6&amp;url=%2FMOERDENG-Waterproof-Mountain-Windbreaker-Raincoat%2Fdp%2FB07W7D7FD9%2Fref%3Dsr_1_58_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-58-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_60</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/61Sl5hKC5qL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Big and Tall Navy Premium All Wool Classic Blazer to Size 72 in Portly, Regular, Short, Long, and Extra Long Sizes</t>
-  </si>
-  <si>
-    <t>$339.61</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYnRmOjMwMDEwMTAxNDk4NzgwMjo6MDo6&amp;url=%2FPremium-Classic-Blazer-Portly-Regular%2Fdp%2FB07GM9GLPG%2Fref%3Dsr_1_59_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-  </si>
-  <si>
-    <t>men_amazon_coat_61</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/51gkygv2zLL._AC_UL320_.jpg</t>
-  </si>
-  <si>
-    <t>Blingsoul</t>
-  </si>
-  <si>
-    <t>Real Leather Car Coats For Men - Long Leather Jacket Men</t>
-  </si>
-  <si>
-    <t>$237.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4NjcyNTAzODY5NzA5MDkyOjE3MTIwODg0MDE6c3BfYnRmOjIwMDE2NDk3MTUzNTY5ODo6MDo6&amp;url=%2FBlingsoul-Classic-Leather-1500143-Bristol%2Fdp%2FB0BTMDYYLH%2Fref%3Dsr_1_60_sspa%3Fcrid%3D32E4H90FCEMZ4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCGzvom-VnU7ZLlEutf4zHnRJwmjkMQWfdNKL7m0QJSi7bN0WGG0bpeBKg2HnNe_DtjV7_2Lnl4HkK_b1oX4zG4VNntTBicnswK2P5gJSUVpb9BConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsTzR1Wu38iqEqPHyVyQ4fYvbcsNd-vZtFmQFaSkYJiAEdHsmS1LtHUx_THW8WcjneY.qarNM5UDZew9GDebaGYYirfor4jviFgl6IGWXXkn9kY%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712088401%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C58%26sr%3D1-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+    <t>$84.99</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/sspa/click?ie=UTF8&amp;spc=MTo4MDc4NzA2Mzk0NDM5MDkzOjE3MTIxMDQ0MDI6c3BfYnRmOjIwMDAyMjIxNTk1NjQ5ODo6MDo6&amp;url=%2FWenVen-Lightweight-Jacket-Cotton-Windbreaker%2Fdp%2FB07H5HZ9QF%2Fref%3Dsr_1_60_sspa%3Fcrid%3DV591HJ41K7N4%26dib%3DeyJ2IjoiMSJ9.aWQSwLG3YvF1SIPHWJ2QrxRlbzAF46m-6O2gx6qlVCE7W0atPXD163tgVN51N3cQBGde8EgCAEMpXbDGkRVkCRc9dIrCTXXwxy399hTWhbSq-oGqS_Q2276CB5APG2whHkJCQYdaKlLdNfSMtQBvYdBConWUlnBBE5v6SsUeeZdlZH98RtP4zkx5qqAJ2q83f4FZcOLumMgk--40j8A1Arni9pFwr5wigZlrX7s1SsST_RcCVp5RoAOwU9lVKabv1V7vD1GxxlVrzokTozPruSBVHIm4m7YGG1N9jRxtQYA.Bg86Fl6dmzvh2fgupGIcrqfUR7pwz75-nCatxhjf-28%26dib_tag%3Dse%26keywords%3DCoat%26qid%3D1712104402%26s%3Dfashion%26sprefix%3D%252Cfashion-mens%252C63%26sr%3D1-60-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+  </si>
+  <si>
+    <t>men_amazon_coat_62</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81XZYBGHEBL._AC_UL320_.jpg</t>
+  </si>
+  <si>
+    <t>https://aax-us-iad.amazon.com/x/c/RKakqS3KfwUS_eN_vfQhANMAAAGOoV_vVgEAAAH2AQBvbm9fdHhuX2JpZDEgICBvbm9fdHhuX2ltcDEgICDD-HyI/https://www.amazon.ca/Mountain-Warehouse-Puffer-Jacket-Resistant/dp/B0BGNYC83H/ref=sxbs_sbv_search_btf?content-id=amzn1.sym.bedc4dd8-4c25-444f-af1f-5771f5bd1c45%3Aamzn1.sym.bedc4dd8-4c25-444f-af1f-5771f5bd1c45&amp;crid=V591HJ41K7N4&amp;cv_ct_cx=Coat&amp;dib=eyJ2IjoiMSJ9.Zeu51XM66nq7gXUz_dbPfg.xdVmxihwExTy81yVQnbwr1CijyE1fl2Uxa4yggqWvuE&amp;dib_tag=se&amp;keywords=Coat&amp;pd_rd_i=B0BGNYC83H&amp;pd_rd_r=5148384e-87d9-43e5-bd8e-21afc0a74838&amp;pd_rd_w=avjC6&amp;pd_rd_wg=ZTjv3&amp;pf_rd_p=bedc4dd8-4c25-444f-af1f-5771f5bd1c45&amp;pf_rd_r=BDXFW6AXN2HW6AKRQ7BX&amp;qid=1712104402&amp;s=fashion&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=%2Cfashion-mens%2C63&amp;sr=1-1-a61ee601-6e56-4862-a8a2-1d3da5a5406f</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1138,167 +1153,167 @@
         <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="F7" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="D8" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="E8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="D9" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="F9" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="D10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="F10" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="D11" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="E11" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="F11" t="s" s="0">
         <v>62</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="C12" t="s" s="0">
         <v>65</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>44</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>66</v>
@@ -1318,47 +1333,47 @@
         <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>83</v>
@@ -1404,181 +1419,181 @@
         <v>94</v>
       </c>
       <c r="E17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="C18" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="D18" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="E18" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="F18" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>103</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>104</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>88</v>
       </c>
       <c r="D19" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="F19" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="C20" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="D20" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>112</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="C21" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s" s="0">
+      <c r="E21" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>117</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="D22" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="E22" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="F22" t="s" s="0">
         <v>123</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="C23" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="D23" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="E23" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="E23" t="s" s="0">
+      <c r="F23" t="s" s="0">
         <v>129</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>130</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="C24" t="s" s="0">
         <v>132</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>127</v>
       </c>
       <c r="D24" t="s" s="0">
         <v>133</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>144</v>
@@ -1598,293 +1613,293 @@
         <v>148</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>149</v>
       </c>
       <c r="E27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s" s="0">
         <v>150</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="C28" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="D28" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="E28" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s" s="0">
         <v>155</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="C29" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="D29" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="E29" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s" s="0">
         <v>160</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="D30" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>166</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s" s="0">
-        <v>21</v>
-      </c>
       <c r="E31" t="s" s="0">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s" s="0">
         <v>225</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s" s="0">
         <v>226</v>
@@ -1918,87 +1933,87 @@
         <v>234</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s" s="0">
         <v>241</v>
       </c>
       <c r="E44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s" s="0">
         <v>242</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="C45" t="s" s="0">
         <v>245</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>44</v>
       </c>
       <c r="D45" t="s" s="0">
         <v>246</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>257</v>
@@ -2018,7 +2033,7 @@
         <v>261</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>262</v>
@@ -2078,27 +2093,27 @@
         <v>278</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>110</v>
+        <v>279</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>285</v>
@@ -2118,13 +2133,13 @@
         <v>289</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>290</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="0">
         <v>291</v>
@@ -2144,170 +2159,190 @@
         <v>295</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>127</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
